--- a/product_ranking_mink_eyelash_extension.xlsx
+++ b/product_ranking_mink_eyelash_extension.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
-  <si>
-    <t>bulk korean custom 5d premium wholesale private label 100% real mink eyelash extension</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
+  <si>
+    <t>bulk korean custom premium wholesale private label 100% real mink individual eyelash extensions</t>
   </si>
   <si>
     <t>bulk korean custom 5d premium wholesale private label 100% real mink individual eyelash extension</t>
@@ -40,6 +40,9 @@
     <t>bulk korean fiber 3d custom premium wholesale private label 100% real mink fur individual eyelash extension</t>
   </si>
   <si>
+    <t>wholesale individual mink lash extension mink eyelash extension mink</t>
+  </si>
+  <si>
     <t>wholesale individual mink eyelash extension mink</t>
   </si>
   <si>
@@ -49,7 +52,7 @@
     <t>individual mink eyelash extension supplier private label</t>
   </si>
   <si>
-    <t>wholesale 3d individual mink lash extension</t>
+    <t>individual mink lash extensions</t>
   </si>
   <si>
     <t>individual 3d mink lash extension</t>
@@ -67,7 +70,7 @@
     <t>real mink eyelash extension individual private label supplier</t>
   </si>
   <si>
-    <t>mink individual lash eyelash extension private label supplier</t>
+    <t>mink individual lashes eyelash extension private label supplier</t>
   </si>
   <si>
     <t>mink individual eyelash extension private label supplier</t>
@@ -85,6 +88,9 @@
     <t>9-27</t>
   </si>
   <si>
+    <t>9-28</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
@@ -94,13 +100,13 @@
     <t>5-28</t>
   </si>
   <si>
+    <t>8-10</t>
+  </si>
+  <si>
     <t>8-8</t>
   </si>
   <si>
-    <t>8-10</t>
-  </si>
-  <si>
-    <t>11-10</t>
+    <t>6-18</t>
   </si>
   <si>
     <t>6-17</t>
@@ -115,6 +121,9 @@
     <t>individual eyelash mink</t>
   </si>
   <si>
+    <t>3-13</t>
+  </si>
+  <si>
     <t>3-14</t>
   </si>
   <si>
@@ -136,45 +145,51 @@
     <t>real mink eyelash extension</t>
   </si>
   <si>
+    <t>7-16</t>
+  </si>
+  <si>
     <t>7-17</t>
   </si>
   <si>
-    <t>7-16</t>
-  </si>
-  <si>
     <t>7-15</t>
   </si>
   <si>
     <t>mink eyelash extension supplier</t>
   </si>
   <si>
+    <t>10-12</t>
+  </si>
+  <si>
     <t>10-11</t>
   </si>
   <si>
     <t>mink eyelash extension individual</t>
   </si>
   <si>
-    <t>11-9</t>
-  </si>
-  <si>
     <t>private label mink eyelash extension</t>
   </si>
   <si>
     <t>mink individual eyelash private label</t>
   </si>
   <si>
+    <t>3-28</t>
+  </si>
+  <si>
     <t>3-29</t>
   </si>
   <si>
-    <t>3-28</t>
-  </si>
-  <si>
     <t>14-16</t>
   </si>
   <si>
     <t>premium mink eyelash extension</t>
   </si>
   <si>
+    <t>4-29</t>
+  </si>
+  <si>
+    <t>4-28</t>
+  </si>
+  <si>
     <t>4-30</t>
   </si>
   <si>
@@ -184,15 +199,18 @@
     <t>private label individual mink eyelash</t>
   </si>
   <si>
+    <t>12-30</t>
+  </si>
+  <si>
     <t>12-31</t>
   </si>
   <si>
-    <t>12-30</t>
-  </si>
-  <si>
     <t>wholesale mink eyelash extension</t>
   </si>
   <si>
+    <t>7-30</t>
+  </si>
+  <si>
     <t>7-29</t>
   </si>
   <si>
@@ -202,7 +220,7 @@
     <t>100 mink eyelash extension</t>
   </si>
   <si>
-    <t>9-4</t>
+    <t>9-2</t>
   </si>
   <si>
     <t>9-3</t>
@@ -256,6 +274,9 @@
     <t>individual eyelash extension mink</t>
   </si>
   <si>
+    <t>2-21</t>
+  </si>
+  <si>
     <t>2-22</t>
   </si>
   <si>
@@ -286,9 +307,6 @@
     <t>real mink lash extension</t>
   </si>
   <si>
-    <t>9-28</t>
-  </si>
-  <si>
     <t>4-18</t>
   </si>
   <si>
@@ -304,6 +322,9 @@
     <t>individual lash mink</t>
   </si>
   <si>
+    <t>2-26</t>
+  </si>
+  <si>
     <t>5-30</t>
   </si>
   <si>
@@ -313,6 +334,9 @@
     <t>mink lash individual</t>
   </si>
   <si>
+    <t>2-29</t>
+  </si>
+  <si>
     <t>5-33</t>
   </si>
   <si>
@@ -322,7 +346,7 @@
     <t>3d mink eyelash extension</t>
   </si>
   <si>
-    <t>12-36</t>
+    <t>13-1</t>
   </si>
   <si>
     <t>7-28</t>
@@ -356,6 +380,9 @@
   </si>
   <si>
     <t>10-7</t>
+  </si>
+  <si>
+    <t>10-8</t>
   </si>
   <si>
     <t>20-4</t>
@@ -424,12 +451,18 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -444,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -494,6 +527,27 @@
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="58" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -770,23 +824,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="3" min="1" width="3.625"/>
-    <col customWidth="1" max="9" min="4" style="6" width="31"/>
-    <col customWidth="1" max="10" min="10" style="15" width="31"/>
-    <col customWidth="1" max="11" min="11" style="5" width="41.625"/>
-    <col customWidth="1" max="12" min="12" style="5" width="45.75"/>
-    <col customWidth="1" max="13" min="13" style="1" width="40.625"/>
+    <col customWidth="1" max="10" min="4" style="6" width="31"/>
+    <col customWidth="1" max="11" min="11" style="15" width="31"/>
+    <col customWidth="1" max="12" min="12" style="5" width="41.625"/>
+    <col customWidth="1" max="13" min="13" style="5" width="45.75"/>
+    <col customWidth="1" max="14" min="14" style="1" width="40.625"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="2" spans="1:13">
+    <row customFormat="1" r="1" s="2" spans="1:14">
       <c r="D1" s="4" t="n"/>
       <c r="E1" s="1" t="n">
         <v>60804168708</v>
@@ -815,83 +869,93 @@
       <c r="M1" s="1" t="n">
         <v>60804168708</v>
       </c>
-    </row>
-    <row customFormat="1" r="2" s="3" spans="1:13">
+      <c r="N1" s="1" t="n">
+        <v>60804168708</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="3" spans="1:14">
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="4" t="n"/>
       <c r="G2" s="4" t="n"/>
       <c r="H2" s="4" t="n"/>
-      <c r="I2" s="15" t="n"/>
+      <c r="I2" s="4" t="n"/>
       <c r="J2" s="15" t="n"/>
-      <c r="K2" s="5" t="n"/>
-      <c r="L2" s="1" t="n"/>
+      <c r="K2" s="15" t="n"/>
+      <c r="L2" s="5" t="n"/>
       <c r="M2" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="53.25" r="3" spans="1:13">
-      <c r="D3" s="4" t="n"/>
+      <c r="N2" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="53.25" r="3" spans="1:14">
+      <c r="D3" s="16" t="n"/>
       <c r="E3" s="16" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="J3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="K3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="30" r="4" s="2" spans="1:13">
-      <c r="D4" s="4" t="n"/>
+      <c r="N3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="47.25" r="4" s="2" spans="1:14">
+      <c r="D4" s="16" t="n"/>
       <c r="E4" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>9</v>
-      </c>
       <c r="I4" s="16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K4" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="L4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="30" r="5" s="2" spans="1:13">
-      <c r="D5" s="4" t="n"/>
+        <v>11</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="30" r="5" s="2" spans="1:14">
+      <c r="D5" s="16" t="n"/>
       <c r="E5" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>12</v>
@@ -906,28 +970,31 @@
         <v>15</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="K5" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="L5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="30" r="6" s="2" spans="1:13">
-      <c r="D6" s="4" t="n"/>
+        <v>17</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="30" r="6" s="2" spans="1:14">
+      <c r="D6" s="16" t="n"/>
       <c r="E6" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>19</v>
@@ -936,19 +1003,22 @@
         <v>20</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="K6" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="L6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="7" s="9" spans="1:13">
+        <v>22</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="7" s="9" spans="1:14">
       <c r="A7" s="9" t="n">
         <v>371</v>
       </c>
@@ -962,34 +1032,37 @@
         <v>5</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>23</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="8" s="9" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="8" s="9" spans="1:14">
       <c r="A8" s="9" t="n">
         <v>184</v>
       </c>
@@ -1000,37 +1073,40 @@
         <v>371</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="9" s="9" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="9" s="9" spans="1:14">
       <c r="A9" s="9" t="n">
         <v>140</v>
       </c>
@@ -1041,37 +1117,40 @@
         <v>320</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="10" s="9" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="10" s="9" spans="1:14">
       <c r="A10" s="9" t="n">
         <v>54</v>
       </c>
@@ -1082,37 +1161,40 @@
         <v>289</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="11" s="9" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="11" s="9" spans="1:14">
       <c r="A11" s="9" t="n">
         <v>73</v>
       </c>
@@ -1123,37 +1205,40 @@
         <v>255</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="12" s="9" spans="1:13">
+        <v>33</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="12" s="9" spans="1:14">
       <c r="A12" s="9" t="n">
         <v>10</v>
       </c>
@@ -1164,37 +1249,40 @@
         <v>251</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="13" s="9" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="13" s="9" spans="1:14">
       <c r="A13" s="9" t="n">
         <v>61</v>
       </c>
@@ -1205,37 +1293,40 @@
         <v>232</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="14" s="9" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="14" s="9" spans="1:14">
       <c r="A14" s="9" t="n">
         <v>23</v>
       </c>
@@ -1246,37 +1337,40 @@
         <v>188</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="15" s="9" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="15" s="9" spans="1:14">
       <c r="A15" s="9" t="n">
         <v>258</v>
       </c>
@@ -1287,37 +1381,40 @@
         <v>180</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="16" s="9" spans="1:13">
+        <v>45</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="16" s="9" spans="1:14">
       <c r="A16" s="9" t="n">
         <v>15</v>
       </c>
@@ -1328,37 +1425,40 @@
         <v>155</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="17" s="9" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="17" s="9" spans="1:14">
       <c r="A17" s="9" t="n">
         <v>13</v>
       </c>
@@ -1369,37 +1469,40 @@
         <v>155</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="18" s="9" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="18" s="9" spans="1:14">
       <c r="A18" s="9" t="n">
         <v>77</v>
       </c>
@@ -1410,37 +1513,40 @@
         <v>152</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>23</v>
+        <v>45</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="19" s="9" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="19" s="9" spans="1:14">
       <c r="A19" s="9" t="n">
         <v>0</v>
       </c>
@@ -1451,37 +1557,40 @@
         <v>138</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="20" s="9" spans="1:13">
+        <v>53</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="20" s="9" spans="1:14">
       <c r="A20" s="9" t="n">
         <v>57</v>
       </c>
@@ -1492,37 +1601,40 @@
         <v>112</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="21" s="9" spans="1:13">
+        <v>58</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="21" s="9" spans="1:14">
       <c r="A21" s="9" t="n">
         <v>8</v>
       </c>
@@ -1533,37 +1645,40 @@
         <v>110</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>23</v>
+        <v>61</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="22" s="9" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="22" s="9" spans="1:14">
       <c r="A22" s="9" t="n">
         <v>103</v>
       </c>
@@ -1574,37 +1689,40 @@
         <v>107</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="G22" s="24" t="n">
+        <v>43310</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>23</v>
+        <v>65</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="23" s="9" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="23" s="9" spans="1:14">
       <c r="A23" s="9" t="n">
         <v>25</v>
       </c>
@@ -1615,37 +1733,40 @@
         <v>97</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>23</v>
+        <v>70</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M23" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="24" s="9" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="24" s="9" spans="1:14">
       <c r="A24" s="9" t="n">
         <v>64</v>
       </c>
@@ -1656,37 +1777,40 @@
         <v>92</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="25" s="9" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="25" s="9" spans="1:14">
       <c r="A25" s="9" t="n">
         <v>10</v>
       </c>
@@ -1697,37 +1821,40 @@
         <v>89</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>23</v>
+        <v>62</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M25" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="26" s="9" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="26" s="9" spans="1:14">
       <c r="A26" s="9" t="n">
         <v>102</v>
       </c>
@@ -1738,37 +1865,40 @@
         <v>89</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M26" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="27" s="9" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="27" s="9" spans="1:14">
       <c r="A27" s="9" t="n">
         <v>19</v>
       </c>
@@ -1779,78 +1909,84 @@
         <v>87</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>23</v>
+        <v>78</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M27" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="28" s="9" spans="1:13">
-      <c r="A28" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="28" s="18" spans="1:14">
+      <c r="A28" s="18" t="n">
         <v>21</v>
       </c>
-      <c r="B28" s="9" t="n">
+      <c r="B28" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="C28" s="9" t="n">
+      <c r="C28" s="18" t="n">
         <v>87</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M28" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="29" s="9" spans="1:13">
+      <c r="D28" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="29" s="9" spans="1:14">
       <c r="A29" s="9" t="n">
         <v>5</v>
       </c>
@@ -1861,37 +1997,40 @@
         <v>74</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J29" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>77</v>
+        <v>25</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="30" s="9" spans="1:13">
+        <v>83</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="N29" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="30" s="9" spans="1:14">
       <c r="A30" s="9" t="n">
         <v>14</v>
       </c>
@@ -1902,78 +2041,84 @@
         <v>71</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J30" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>23</v>
+        <v>88</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="31" s="9" spans="1:13">
-      <c r="A31" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="31" s="18" spans="1:14">
+      <c r="A31" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="B31" s="9" t="n">
+      <c r="B31" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="C31" s="9" t="n">
+      <c r="C31" s="18" t="n">
         <v>67</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M31" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="32" s="9" spans="1:13">
+      <c r="D31" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="32" s="9" spans="1:14">
       <c r="A32" s="9" t="n">
         <v>10</v>
       </c>
@@ -1984,37 +2129,40 @@
         <v>63</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J32" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" s="13" t="s">
-        <v>87</v>
+        <v>93</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K32" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="M32" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="33" s="9" spans="1:13">
+        <v>94</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="N32" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="33" s="9" spans="1:14">
       <c r="A33" s="9" t="n">
         <v>20</v>
       </c>
@@ -2025,37 +2173,40 @@
         <v>63</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>91</v>
+        <v>24</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="L33" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M33" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="34" s="9" spans="1:13">
+        <v>97</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="34" s="9" spans="1:14">
       <c r="A34" s="9" t="n">
         <v>47</v>
       </c>
@@ -2066,37 +2217,40 @@
         <v>59</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J34" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>23</v>
+        <v>100</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M34" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="35" s="9" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="35" s="9" spans="1:14">
       <c r="A35" s="9" t="n">
         <v>4</v>
       </c>
@@ -2107,37 +2261,40 @@
         <v>59</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="J35" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="K35" s="13" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K35" s="17" t="s">
+        <v>104</v>
       </c>
       <c r="L35" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M35" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="36" s="9" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="36" s="9" spans="1:14">
       <c r="A36" s="9" t="n">
         <v>16</v>
       </c>
@@ -2148,78 +2305,84 @@
         <v>59</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="J36" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>23</v>
+        <v>107</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K36" s="17" t="s">
+        <v>108</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M36" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="37" s="9" spans="1:13">
-      <c r="A37" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="M36" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="37" s="18" spans="1:14">
+      <c r="A37" s="18" t="n">
         <v>103</v>
       </c>
-      <c r="B37" s="9" t="n">
+      <c r="B37" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="C37" s="9" t="n">
+      <c r="C37" s="18" t="n">
         <v>55</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J37" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L37" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M37" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="38" s="9" spans="1:13">
+      <c r="D37" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M37" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="38" s="9" spans="1:14">
       <c r="A38" s="9" t="n">
         <v>19</v>
       </c>
@@ -2230,37 +2393,40 @@
         <v>50</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J38" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>23</v>
+        <v>114</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="L38" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M38" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="39" s="9" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="M38" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="39" s="9" spans="1:14">
       <c r="A39" s="9" t="n">
         <v>1</v>
       </c>
@@ -2271,37 +2437,40 @@
         <v>50</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="J39" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K39" s="13" t="s">
-        <v>111</v>
+        <v>117</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="K39" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="L39" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="M39" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="40" s="9" spans="1:13">
+        <v>119</v>
+      </c>
+      <c r="M39" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="40" s="9" spans="1:14">
       <c r="A40" s="9" t="n">
         <v>14</v>
       </c>
@@ -2312,37 +2481,40 @@
         <v>50</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J40" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K40" s="13" t="s">
-        <v>23</v>
+        <v>123</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="L40" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M40" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="41" s="9" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="M40" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="41" s="9" spans="1:14">
       <c r="A41" s="9" t="n">
         <v>10</v>
       </c>
@@ -2353,37 +2525,40 @@
         <v>50</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J41" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K41" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K41" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="L41" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M41" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="42" s="9" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="M41" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="42" s="9" spans="1:14">
       <c r="A42" s="9" t="n">
         <v>11</v>
       </c>
@@ -2394,101 +2569,108 @@
         <v>50</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J42" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K42" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="L42" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M42" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="M42" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="D43" s="8" t="n"/>
       <c r="E43" s="8" t="n"/>
       <c r="F43" s="8" t="n"/>
       <c r="G43" s="8" t="n"/>
       <c r="H43" s="8" t="n"/>
       <c r="I43" s="8" t="n"/>
-      <c r="J43" s="17" t="n"/>
-      <c r="K43" s="13" t="n"/>
+      <c r="J43" s="8" t="n"/>
+      <c r="K43" s="17" t="n"/>
       <c r="L43" s="13" t="n"/>
-      <c r="M43" s="11" t="n"/>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="M43" s="13" t="n"/>
+      <c r="N43" s="11" t="n"/>
+    </row>
+    <row r="44" spans="1:14">
       <c r="D44" s="8" t="n"/>
       <c r="E44" s="8" t="n"/>
       <c r="F44" s="8" t="n"/>
       <c r="G44" s="8" t="n"/>
       <c r="H44" s="8" t="n"/>
       <c r="I44" s="8" t="n"/>
-      <c r="J44" s="17" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="J44" s="8" t="n"/>
+      <c r="K44" s="17" t="n"/>
       <c r="L44" s="13" t="n"/>
-      <c r="M44" s="11" t="n"/>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="M44" s="13" t="n"/>
+      <c r="N44" s="11" t="n"/>
+    </row>
+    <row r="45" spans="1:14">
       <c r="D45" s="8" t="n"/>
       <c r="E45" s="8" t="n"/>
       <c r="F45" s="8" t="n"/>
       <c r="G45" s="8" t="n"/>
       <c r="H45" s="8" t="n"/>
       <c r="I45" s="8" t="n"/>
-      <c r="J45" s="17" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="J45" s="8" t="n"/>
+      <c r="K45" s="17" t="n"/>
       <c r="L45" s="13" t="n"/>
-      <c r="M45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="15" r="46" spans="1:13">
+      <c r="M45" s="13" t="n"/>
+      <c r="N45" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="46" spans="1:14">
       <c r="D46" s="7" t="n"/>
       <c r="E46" s="7" t="n"/>
       <c r="F46" s="7" t="n"/>
       <c r="G46" s="7" t="n"/>
       <c r="H46" s="7" t="n"/>
       <c r="I46" s="7" t="n"/>
-      <c r="J46" s="14" t="n"/>
+      <c r="J46" s="7" t="n"/>
       <c r="K46" s="14" t="n"/>
       <c r="L46" s="14" t="n"/>
-      <c r="M46" s="10" t="n"/>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="E48" s="1" t="n"/>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="E49" s="4" t="n"/>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="E50" s="16" t="n"/>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="E51" s="16" t="n"/>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="E52" s="16" t="n"/>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="E53" s="16" t="n"/>
+      <c r="M46" s="14" t="n"/>
+      <c r="N46" s="10" t="n"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="F48" s="1" t="n"/>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="F49" s="4" t="n"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="F50" s="16" t="n"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="F51" s="16" t="n"/>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="F52" s="16" t="n"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="F53" s="16" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/product_ranking_mink_eyelash_extension.xlsx
+++ b/product_ranking_mink_eyelash_extension.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\python\Market Management\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="130">
   <si>
     <t>bulk korean custom premium wholesale private label 100% real mink individual eyelash extensions</t>
   </si>
@@ -392,68 +397,83 @@
   </si>
   <si>
     <t>3d individual mink lash</t>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulk korean custom premium wholesale private label 100% real mink individual eyelash extensions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulk korean mink lash extension custom premium wholesale private label 100% real mink individual eyelash extensions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mink lash extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF303F9F"/>
       <name val="Courier New"/>
       <family val="3"/>
-      <color rgb="FF303F9F"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF303F9F"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FF303F9F"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -475,85 +495,94 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="58" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -819,122 +848,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="3" min="1" width="3.625"/>
-    <col customWidth="1" max="10" min="4" style="6" width="31"/>
-    <col customWidth="1" max="11" min="11" style="15" width="31"/>
-    <col customWidth="1" max="12" min="12" style="5" width="41.625"/>
-    <col customWidth="1" max="13" min="13" style="5" width="45.75"/>
-    <col customWidth="1" max="14" min="14" style="1" width="40.625"/>
+    <col min="1" max="3" width="3.625" customWidth="1"/>
+    <col min="4" max="11" width="31" style="6" customWidth="1"/>
+    <col min="12" max="12" width="31" style="15" customWidth="1"/>
+    <col min="13" max="13" width="41.625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="45.75" style="5" customWidth="1"/>
+    <col min="15" max="15" width="40.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="2" spans="1:14">
-      <c r="D1" s="4" t="n"/>
-      <c r="E1" s="1" t="n">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="4"/>
+      <c r="E1" s="1">
         <v>60804168708</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>60804168708</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>60804168708</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>60804168708</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>60804168708</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1">
         <v>60804168708</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="1">
         <v>60804168708</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="1">
         <v>60804168708</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1" s="1">
         <v>60804168708</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="N1" s="1">
         <v>60804168708</v>
       </c>
-    </row>
-    <row customFormat="1" r="2" s="3" spans="1:14">
-      <c r="D2" s="4" t="n"/>
-      <c r="E2" s="4" t="n"/>
-      <c r="F2" s="4" t="n"/>
-      <c r="G2" s="4" t="n"/>
-      <c r="H2" s="4" t="n"/>
-      <c r="I2" s="4" t="n"/>
-      <c r="J2" s="15" t="n"/>
-      <c r="K2" s="15" t="n"/>
-      <c r="L2" s="5" t="n"/>
-      <c r="M2" s="1" t="n"/>
-      <c r="N2" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="53.25" r="3" spans="1:14">
-      <c r="D3" s="16" t="n"/>
+      <c r="O1" s="1">
+        <v>60804168708</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="16">
+        <f>LEN(E3)</f>
+        <v>115</v>
+      </c>
       <c r="E3" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="J3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="K3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="L3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="47.25" r="4" s="2" spans="1:14">
-      <c r="D4" s="16" t="n"/>
+      <c r="O3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="2" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="16"/>
       <c r="E4" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="16" t="s">
         <v>5</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>10</v>
       </c>
       <c r="J4" s="16" t="s">
         <v>10</v>
@@ -942,8 +977,8 @@
       <c r="K4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>11</v>
+      <c r="L4" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>11</v>
@@ -951,9 +986,12 @@
       <c r="N4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="30" r="5" s="2" spans="1:14">
-      <c r="D5" s="16" t="n"/>
+      <c r="O4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="16"/>
       <c r="E5" s="16" t="s">
         <v>12</v>
       </c>
@@ -961,22 +999,22 @@
         <v>12</v>
       </c>
       <c r="G5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="I5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="J5" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>17</v>
+      <c r="L5" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>17</v>
@@ -984,9 +1022,12 @@
       <c r="N5" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="30" r="6" s="2" spans="1:14">
-      <c r="D6" s="16" t="n"/>
+      <c r="O5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="16"/>
       <c r="E6" s="16" t="s">
         <v>18</v>
       </c>
@@ -994,22 +1035,22 @@
         <v>18</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>19</v>
       </c>
       <c r="I6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>22</v>
+      <c r="L6" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>22</v>
@@ -1017,67 +1058,69 @@
       <c r="N6" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="7" s="9" spans="1:14">
-      <c r="A7" s="9" t="n">
+      <c r="O6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
         <v>371</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="9">
         <v>89</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="9">
         <v>591</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="J7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="13" t="s">
+      <c r="K7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="17" t="s">
         <v>25</v>
       </c>
       <c r="M7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="8" s="9" spans="1:14">
-      <c r="A8" s="9" t="n">
+      <c r="N7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
         <v>184</v>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="9">
         <v>20</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="9">
         <v>371</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
         <v>26</v>
       </c>
@@ -1085,48 +1128,49 @@
         <v>26</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="13" t="s">
-        <v>25</v>
+      <c r="L8" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="M8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="9" s="9" spans="1:14">
-      <c r="A9" s="9" t="n">
+      <c r="N8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
         <v>140</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="9">
         <v>3</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="9">
         <v>320</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>28</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>29</v>
@@ -1135,37 +1179,38 @@
         <v>29</v>
       </c>
       <c r="J9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="17" t="s">
         <v>25</v>
       </c>
       <c r="M9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="10" s="9" spans="1:14">
-      <c r="A10" s="9" t="n">
+      <c r="N9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
         <v>54</v>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B10" s="9">
         <v>3</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="9">
         <v>289</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
         <v>30</v>
       </c>
@@ -1173,7 +1218,7 @@
         <v>30</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>31</v>
@@ -1181,35 +1226,36 @@
       <c r="J10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="13" t="s">
+      <c r="K10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="17" t="s">
         <v>25</v>
       </c>
       <c r="M10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="11" s="9" spans="1:14">
-      <c r="A11" s="9" t="n">
+      <c r="N10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
         <v>73</v>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B11" s="9">
         <v>3</v>
       </c>
-      <c r="C11" s="9" t="n">
+      <c r="C11" s="9">
         <v>255</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
         <v>33</v>
       </c>
@@ -1225,84 +1271,86 @@
       <c r="J11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="13" t="s">
+      <c r="K11" s="8" t="s">
         <v>33</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="M11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="12" s="9" spans="1:14">
-      <c r="A12" s="9" t="n">
+      <c r="N11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="n">
+      <c r="B12" s="9">
         <v>2</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="9">
         <v>251</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>36</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="M12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N12" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="13" s="9" spans="1:14">
-      <c r="A13" s="9" t="n">
+      <c r="N12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
         <v>61</v>
       </c>
-      <c r="B13" s="9" t="n">
+      <c r="B13" s="9">
         <v>3</v>
       </c>
-      <c r="C13" s="9" t="n">
+      <c r="C13" s="9">
         <v>232</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>31</v>
@@ -1311,42 +1359,43 @@
         <v>31</v>
       </c>
       <c r="J13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="17" t="s">
         <v>25</v>
       </c>
       <c r="M13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="14" s="9" spans="1:14">
-      <c r="A14" s="9" t="n">
+      <c r="N13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
         <v>23</v>
       </c>
-      <c r="B14" s="9" t="n">
+      <c r="B14" s="9">
         <v>0</v>
       </c>
-      <c r="C14" s="9" t="n">
+      <c r="C14" s="9">
         <v>188</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>31</v>
@@ -1357,37 +1406,38 @@
       <c r="J14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="13" t="s">
+      <c r="K14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="17" t="s">
         <v>25</v>
       </c>
       <c r="M14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="15" s="9" spans="1:14">
-      <c r="A15" s="9" t="n">
+      <c r="N14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
         <v>258</v>
       </c>
-      <c r="B15" s="9" t="n">
+      <c r="B15" s="9">
         <v>45</v>
       </c>
-      <c r="C15" s="9" t="n">
+      <c r="C15" s="9">
         <v>180</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>44</v>
@@ -1396,89 +1446,91 @@
         <v>44</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K15" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="13" t="s">
+      <c r="K15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="M15" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="16" s="9" spans="1:14">
-      <c r="A16" s="9" t="n">
+      <c r="N15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="n">
+      <c r="B16" s="9">
         <v>0</v>
       </c>
-      <c r="C16" s="9" t="n">
+      <c r="C16" s="9">
         <v>155</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="H16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="I16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="J16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="13" t="s">
+      <c r="K16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="17" t="s">
         <v>25</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N16" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="17" s="9" spans="1:14">
-      <c r="A17" s="9" t="n">
+      <c r="N16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
         <v>13</v>
       </c>
-      <c r="B17" s="9" t="n">
+      <c r="B17" s="9">
         <v>1</v>
       </c>
-      <c r="C17" s="9" t="n">
+      <c r="C17" s="9">
         <v>155</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="G17" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>31</v>
@@ -1489,35 +1541,36 @@
       <c r="J17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="13" t="s">
+      <c r="K17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="17" t="s">
         <v>25</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="18" s="9" spans="1:14">
-      <c r="A18" s="9" t="n">
+      <c r="N17" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
         <v>77</v>
       </c>
-      <c r="B18" s="9" t="n">
+      <c r="B18" s="9">
         <v>2</v>
       </c>
-      <c r="C18" s="9" t="n">
+      <c r="C18" s="9">
         <v>152</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="E18" s="8"/>
       <c r="F18" s="8" t="s">
         <v>43</v>
       </c>
@@ -1528,45 +1581,46 @@
         <v>43</v>
       </c>
       <c r="I18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" s="13" t="s">
+      <c r="K18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="17" t="s">
         <v>25</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N18" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="19" s="9" spans="1:14">
-      <c r="A19" s="9" t="n">
+      <c r="N18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
         <v>0</v>
       </c>
-      <c r="B19" s="9" t="n">
+      <c r="B19" s="9">
         <v>0</v>
       </c>
-      <c r="C19" s="9" t="n">
+      <c r="C19" s="9">
         <v>138</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="E19" s="8"/>
       <c r="F19" s="8" t="s">
         <v>52</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>53</v>
@@ -1575,213 +1629,218 @@
         <v>53</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L19" s="13" t="s">
         <v>53</v>
       </c>
+      <c r="K19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>25</v>
+      </c>
       <c r="M19" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="N19" s="11" t="s">
+      <c r="O19" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="20" s="9" spans="1:14">
-      <c r="A20" s="9" t="n">
+    <row r="20" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
         <v>57</v>
       </c>
-      <c r="B20" s="9" t="n">
+      <c r="B20" s="9">
         <v>5</v>
       </c>
-      <c r="C20" s="9" t="n">
+      <c r="C20" s="9">
         <v>112</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="G20" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>58</v>
       </c>
       <c r="I20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="K20" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="13" t="s">
+      <c r="L20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="M20" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="21" s="9" spans="1:14">
-      <c r="A21" s="9" t="n">
+      <c r="N20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
         <v>8</v>
       </c>
-      <c r="B21" s="9" t="n">
+      <c r="B21" s="9">
         <v>0</v>
       </c>
-      <c r="C21" s="9" t="n">
+      <c r="C21" s="9">
         <v>110</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
         <v>61</v>
       </c>
       <c r="G21" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>61</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L21" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="17" t="s">
         <v>25</v>
       </c>
       <c r="M21" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N21" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="22" s="9" spans="1:14">
-      <c r="A22" s="9" t="n">
+      <c r="N21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
         <v>103</v>
       </c>
-      <c r="B22" s="9" t="n">
+      <c r="B22" s="9">
         <v>8</v>
       </c>
-      <c r="C22" s="9" t="n">
+      <c r="C22" s="9">
         <v>107</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="G22" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="24" t="n">
+      <c r="H22" s="24">
         <v>43310</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="I22" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="J22" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L22" s="13" t="s">
+      <c r="K22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="17" t="s">
         <v>25</v>
       </c>
       <c r="M22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N22" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="23" s="9" spans="1:14">
-      <c r="A23" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="B23" s="9" t="n">
+      <c r="N22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
+        <v>25</v>
+      </c>
+      <c r="B23" s="9">
         <v>1</v>
       </c>
-      <c r="C23" s="9" t="n">
+      <c r="C23" s="9">
         <v>97</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>68</v>
-      </c>
+      <c r="E23" s="8"/>
       <c r="F23" s="8" t="s">
         <v>68</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>69</v>
       </c>
       <c r="I23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L23" s="13" t="s">
+      <c r="K23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="17" t="s">
         <v>25</v>
       </c>
       <c r="M23" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N23" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="24" s="9" spans="1:14">
-      <c r="A24" s="9" t="n">
+      <c r="N23" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
         <v>64</v>
       </c>
-      <c r="B24" s="9" t="n">
+      <c r="B24" s="9">
         <v>5</v>
       </c>
-      <c r="C24" s="9" t="n">
+      <c r="C24" s="9">
         <v>92</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="E24" s="8"/>
       <c r="F24" s="8" t="s">
         <v>25</v>
       </c>
@@ -1797,79 +1856,81 @@
       <c r="J24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K24" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L24" s="13" t="s">
+      <c r="K24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="17" t="s">
         <v>25</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N24" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="25" s="9" spans="1:14">
-      <c r="A25" s="9" t="n">
+      <c r="N24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
         <v>10</v>
       </c>
-      <c r="B25" s="9" t="n">
+      <c r="B25" s="9">
         <v>0</v>
       </c>
-      <c r="C25" s="9" t="n">
+      <c r="C25" s="9">
         <v>89</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>62</v>
-      </c>
+      <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
         <v>62</v>
       </c>
       <c r="G25" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>62</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L25" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="17" t="s">
         <v>25</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N25" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="26" s="9" spans="1:14">
-      <c r="A26" s="9" t="n">
+      <c r="N25" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="9">
         <v>102</v>
       </c>
-      <c r="B26" s="9" t="n">
+      <c r="B26" s="9">
         <v>6</v>
       </c>
-      <c r="C26" s="9" t="n">
+      <c r="C26" s="9">
         <v>89</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="E26" s="8"/>
       <c r="F26" s="8" t="s">
         <v>25</v>
       </c>
@@ -1885,35 +1946,36 @@
       <c r="J26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K26" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L26" s="13" t="s">
+      <c r="K26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="17" t="s">
         <v>25</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N26" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="27" s="9" spans="1:14">
-      <c r="A27" s="9" t="n">
+      <c r="N26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
         <v>19</v>
       </c>
-      <c r="B27" s="9" t="n">
+      <c r="B27" s="9">
         <v>0</v>
       </c>
-      <c r="C27" s="9" t="n">
+      <c r="C27" s="9">
         <v>87</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="E27" s="8"/>
       <c r="F27" s="8" t="s">
         <v>76</v>
       </c>
@@ -1921,89 +1983,91 @@
         <v>76</v>
       </c>
       <c r="H27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="J27" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="J27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K27" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L27" s="13" t="s">
+      <c r="K27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="17" t="s">
         <v>25</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N27" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="28" s="18" spans="1:14">
-      <c r="A28" s="18" t="n">
+      <c r="N27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O27" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="18">
         <v>21</v>
       </c>
-      <c r="B28" s="18" t="n">
+      <c r="B28" s="18">
         <v>0</v>
       </c>
-      <c r="C28" s="18" t="n">
+      <c r="C28" s="18">
         <v>87</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="19" t="s">
-        <v>25</v>
-      </c>
+      <c r="E28" s="19"/>
       <c r="F28" s="19" t="s">
         <v>25</v>
       </c>
       <c r="G28" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="19" t="s">
         <v>80</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>81</v>
       </c>
       <c r="I28" s="19" t="s">
         <v>81</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K28" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="L28" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="20" t="s">
         <v>25</v>
       </c>
       <c r="M28" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="N28" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="29" s="9" spans="1:14">
-      <c r="A29" s="9" t="n">
+      <c r="N28" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
         <v>5</v>
       </c>
-      <c r="B29" s="9" t="n">
+      <c r="B29" s="9">
         <v>0</v>
       </c>
-      <c r="C29" s="9" t="n">
+      <c r="C29" s="9">
         <v>74</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>25</v>
@@ -2015,125 +2079,128 @@
         <v>25</v>
       </c>
       <c r="J29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L29" s="13" t="s">
+      <c r="L29" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="M29" s="13" t="s">
+      <c r="N29" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="N29" s="12" t="s">
+      <c r="O29" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="30" s="9" spans="1:14">
-      <c r="A30" s="9" t="n">
+    <row r="30" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9">
         <v>14</v>
       </c>
-      <c r="B30" s="9" t="n">
+      <c r="B30" s="9">
         <v>0</v>
       </c>
-      <c r="C30" s="9" t="n">
+      <c r="C30" s="9">
         <v>71</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>87</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="K30" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="K30" s="17" t="s">
+      <c r="L30" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="L30" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="M30" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N30" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="31" s="18" spans="1:14">
-      <c r="A31" s="18" t="n">
+      <c r="N30" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="18">
         <v>10</v>
       </c>
-      <c r="B31" s="18" t="n">
+      <c r="B31" s="18">
         <v>0</v>
       </c>
-      <c r="C31" s="18" t="n">
+      <c r="C31" s="18">
         <v>67</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="19" t="s">
-        <v>25</v>
-      </c>
+      <c r="E31" s="19"/>
       <c r="F31" s="19" t="s">
         <v>25</v>
       </c>
       <c r="G31" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="H31" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="I31" s="19" t="s">
         <v>25</v>
       </c>
       <c r="J31" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K31" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="L31" s="21" t="s">
+      <c r="K31" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="20" t="s">
         <v>25</v>
       </c>
       <c r="M31" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="N31" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="32" s="9" spans="1:14">
-      <c r="A32" s="9" t="n">
+      <c r="N31" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="O31" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9">
         <v>10</v>
       </c>
-      <c r="B32" s="9" t="n">
+      <c r="B32" s="9">
         <v>0</v>
       </c>
-      <c r="C32" s="9" t="n">
+      <c r="C32" s="9">
         <v>63</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>93</v>
-      </c>
+      <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
         <v>93</v>
       </c>
@@ -2149,79 +2216,81 @@
       <c r="J32" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="K32" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L32" s="13" t="s">
+      <c r="K32" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="M32" s="13" t="s">
+      <c r="N32" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="N32" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="33" s="9" spans="1:14">
-      <c r="A33" s="9" t="n">
+      <c r="O32" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
         <v>20</v>
       </c>
-      <c r="B33" s="9" t="n">
+      <c r="B33" s="9">
         <v>0</v>
       </c>
-      <c r="C33" s="9" t="n">
+      <c r="C33" s="9">
         <v>63</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="G33" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="H33" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="I33" s="8" t="s">
         <v>24</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K33" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L33" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M33" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="M33" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N33" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="34" s="9" spans="1:14">
-      <c r="A34" s="9" t="n">
+      <c r="N33" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O33" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
         <v>47</v>
       </c>
-      <c r="B34" s="9" t="n">
+      <c r="B34" s="9">
         <v>1</v>
       </c>
-      <c r="C34" s="9" t="n">
+      <c r="C34" s="9">
         <v>59</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>99</v>
-      </c>
+      <c r="E34" s="8"/>
       <c r="F34" s="8" t="s">
         <v>99</v>
       </c>
@@ -2232,172 +2301,176 @@
         <v>99</v>
       </c>
       <c r="I34" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J34" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="J34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K34" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L34" s="13" t="s">
+      <c r="K34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="17" t="s">
         <v>25</v>
       </c>
       <c r="M34" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N34" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="35" s="9" spans="1:14">
-      <c r="A35" s="9" t="n">
+      <c r="N34" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O34" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9">
         <v>4</v>
       </c>
-      <c r="B35" s="9" t="n">
+      <c r="B35" s="9">
         <v>0</v>
       </c>
-      <c r="C35" s="9" t="n">
+      <c r="C35" s="9">
         <v>59</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="8"/>
+      <c r="F35" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>33</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="K35" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="K35" s="17" t="s">
+      <c r="L35" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="L35" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="M35" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N35" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="36" s="9" spans="1:14">
-      <c r="A36" s="9" t="n">
+      <c r="N35" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
         <v>16</v>
       </c>
-      <c r="B36" s="9" t="n">
+      <c r="B36" s="9">
         <v>0</v>
       </c>
-      <c r="C36" s="9" t="n">
+      <c r="C36" s="9">
         <v>59</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="8"/>
+      <c r="F36" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>107</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="K36" s="17" t="s">
+      <c r="K36" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="L36" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="L36" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="M36" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N36" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="37" s="18" spans="1:14">
-      <c r="A37" s="18" t="n">
+      <c r="N36" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="18">
         <v>103</v>
       </c>
-      <c r="B37" s="18" t="n">
+      <c r="B37" s="18">
         <v>6</v>
       </c>
-      <c r="C37" s="18" t="n">
+      <c r="C37" s="18">
         <v>55</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E37" s="19" t="s">
-        <v>25</v>
-      </c>
+      <c r="E37" s="19"/>
       <c r="F37" s="19" t="s">
         <v>25</v>
       </c>
       <c r="G37" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="H37" s="19" t="s">
+      <c r="I37" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="I37" s="19" t="s">
+      <c r="J37" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="J37" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K37" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="L37" s="21" t="s">
+      <c r="K37" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="20" t="s">
         <v>25</v>
       </c>
       <c r="M37" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="N37" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="38" s="9" spans="1:14">
-      <c r="A38" s="9" t="n">
+      <c r="N37" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="O37" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9">
         <v>19</v>
       </c>
-      <c r="B38" s="9" t="n">
+      <c r="B38" s="9">
         <v>1</v>
       </c>
-      <c r="C38" s="9" t="n">
+      <c r="C38" s="9">
         <v>50</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E38" s="8" t="s">
-        <v>114</v>
-      </c>
+      <c r="E38" s="8"/>
       <c r="F38" s="8" t="s">
         <v>114</v>
       </c>
@@ -2411,42 +2484,43 @@
         <v>114</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K38" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L38" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="17" t="s">
         <v>25</v>
       </c>
       <c r="M38" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N38" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="39" s="9" spans="1:14">
-      <c r="A39" s="9" t="n">
+      <c r="N38" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O38" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9">
         <v>1</v>
       </c>
-      <c r="B39" s="9" t="n">
+      <c r="B39" s="9">
         <v>0</v>
       </c>
-      <c r="C39" s="9" t="n">
+      <c r="C39" s="9">
         <v>50</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E39" s="8" t="s">
-        <v>116</v>
-      </c>
+      <c r="E39" s="8"/>
       <c r="F39" s="8" t="s">
         <v>116</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>117</v>
@@ -2455,81 +2529,83 @@
         <v>117</v>
       </c>
       <c r="J39" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="K39" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K39" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L39" s="13" t="s">
-        <v>119</v>
+      <c r="L39" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="M39" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="N39" s="11" t="s">
+      <c r="N39" s="13" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="40" s="9" spans="1:14">
-      <c r="A40" s="9" t="n">
+      <c r="O39" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="9">
         <v>14</v>
       </c>
-      <c r="B40" s="9" t="n">
+      <c r="B40" s="9">
         <v>0</v>
       </c>
-      <c r="C40" s="9" t="n">
+      <c r="C40" s="9">
         <v>50</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="8"/>
+      <c r="F40" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>122</v>
       </c>
       <c r="H40" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I40" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="I40" s="8" t="s">
+      <c r="J40" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="J40" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K40" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L40" s="13" t="s">
+      <c r="K40" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L40" s="17" t="s">
         <v>25</v>
       </c>
       <c r="M40" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N40" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="41" s="9" spans="1:14">
-      <c r="A41" s="9" t="n">
+      <c r="N40" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O40" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9">
         <v>10</v>
       </c>
-      <c r="B41" s="9" t="n">
+      <c r="B41" s="9">
         <v>0</v>
       </c>
-      <c r="C41" s="9" t="n">
+      <c r="C41" s="9">
         <v>50</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E41" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="E41" s="8"/>
       <c r="F41" s="8" t="s">
         <v>25</v>
       </c>
@@ -2545,35 +2621,36 @@
       <c r="J41" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K41" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L41" s="13" t="s">
+      <c r="K41" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" s="17" t="s">
         <v>25</v>
       </c>
       <c r="M41" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N41" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="42" s="9" spans="1:14">
-      <c r="A42" s="9" t="n">
+      <c r="N41" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O41" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="9">
         <v>11</v>
       </c>
-      <c r="B42" s="9" t="n">
+      <c r="B42" s="9">
         <v>1</v>
       </c>
-      <c r="C42" s="9" t="n">
+      <c r="C42" s="9">
         <v>50</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="E42" s="8"/>
       <c r="F42" s="8" t="s">
         <v>25</v>
       </c>
@@ -2589,91 +2666,99 @@
       <c r="J42" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K42" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L42" s="13" t="s">
+      <c r="K42" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" s="17" t="s">
         <v>25</v>
       </c>
       <c r="M42" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N42" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="D43" s="8" t="n"/>
-      <c r="E43" s="8" t="n"/>
-      <c r="F43" s="8" t="n"/>
-      <c r="G43" s="8" t="n"/>
-      <c r="H43" s="8" t="n"/>
-      <c r="I43" s="8" t="n"/>
-      <c r="J43" s="8" t="n"/>
-      <c r="K43" s="17" t="n"/>
-      <c r="L43" s="13" t="n"/>
-      <c r="M43" s="13" t="n"/>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="D44" s="8" t="n"/>
-      <c r="E44" s="8" t="n"/>
-      <c r="F44" s="8" t="n"/>
-      <c r="G44" s="8" t="n"/>
-      <c r="H44" s="8" t="n"/>
-      <c r="I44" s="8" t="n"/>
-      <c r="J44" s="8" t="n"/>
-      <c r="K44" s="17" t="n"/>
-      <c r="L44" s="13" t="n"/>
-      <c r="M44" s="13" t="n"/>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="D45" s="8" t="n"/>
-      <c r="E45" s="8" t="n"/>
-      <c r="F45" s="8" t="n"/>
-      <c r="G45" s="8" t="n"/>
-      <c r="H45" s="8" t="n"/>
-      <c r="I45" s="8" t="n"/>
-      <c r="J45" s="8" t="n"/>
-      <c r="K45" s="17" t="n"/>
-      <c r="L45" s="13" t="n"/>
-      <c r="M45" s="13" t="n"/>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="15" r="46" spans="1:14">
-      <c r="D46" s="7" t="n"/>
-      <c r="E46" s="7" t="n"/>
-      <c r="F46" s="7" t="n"/>
-      <c r="G46" s="7" t="n"/>
-      <c r="H46" s="7" t="n"/>
-      <c r="I46" s="7" t="n"/>
-      <c r="J46" s="7" t="n"/>
-      <c r="K46" s="14" t="n"/>
-      <c r="L46" s="14" t="n"/>
-      <c r="M46" s="14" t="n"/>
-      <c r="N46" s="10" t="n"/>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="F48" s="1" t="n"/>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="F49" s="4" t="n"/>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="F50" s="16" t="n"/>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="F51" s="16" t="n"/>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="F52" s="16" t="n"/>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="F53" s="16" t="n"/>
+      <c r="N42" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O42" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="11"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="11"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="11"/>
+    </row>
+    <row r="46" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="10"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G50" s="16"/>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G51" s="16"/>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G52" s="16"/>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G53" s="16"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/product_ranking_mink_eyelash_extension.xlsx
+++ b/product_ranking_mink_eyelash_extension.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\python\Market Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Market Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -852,7 +852,7 @@
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -955,7 +955,9 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="16"/>
+      <c r="D4" s="16">
+        <v>60812372501</v>
+      </c>
       <c r="E4" s="16" t="s">
         <v>8</v>
       </c>
@@ -2759,6 +2761,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>